--- a/L4_master_v16/MDK-ARM/录波数据.xlsx
+++ b/L4_master_v16/MDK-ARM/录波数据.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,8 +53,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +68,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,11 +97,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -112,7 +124,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3066,7 +3078,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D165-4C76-86C0-AD9765DA54FE}"/>
             </c:ext>
@@ -3080,12 +3092,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="469085312"/>
-        <c:axId val="469083016"/>
+        <c:axId val="142477952"/>
+        <c:axId val="201716864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="469085312"/>
+        <c:axId val="142477952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3127,7 +3140,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469083016"/>
+        <c:crossAx val="201716864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3135,7 +3148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="469083016"/>
+        <c:axId val="201716864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3186,7 +3199,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469085312"/>
+        <c:crossAx val="142477952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3236,7 +3249,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3332,7 +3345,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4C0B-4CE0-8BFB-4BE9E47D1DF1}"/>
             </c:ext>
@@ -3384,7 +3397,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4C0B-4CE0-8BFB-4BE9E47D1DF1}"/>
             </c:ext>
@@ -3398,12 +3411,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452528184"/>
-        <c:axId val="452531136"/>
+        <c:axId val="202025600"/>
+        <c:axId val="202039680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="452528184"/>
+        <c:axId val="202025600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3445,7 +3459,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452531136"/>
+        <c:crossAx val="202039680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3453,7 +3467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="452531136"/>
+        <c:axId val="202039680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3504,7 +3518,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452528184"/>
+        <c:crossAx val="202025600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3586,7 +3600,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -9420,7 +9434,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C39E-4A41-8349-7E750D8CD276}"/>
             </c:ext>
@@ -9434,12 +9448,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="364491216"/>
-        <c:axId val="364491872"/>
+        <c:axId val="202355840"/>
+        <c:axId val="202357376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="364491216"/>
+        <c:axId val="202355840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9481,7 +9496,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364491872"/>
+        <c:crossAx val="202357376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9489,7 +9504,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="364491872"/>
+        <c:axId val="202357376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9540,7 +9555,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364491216"/>
+        <c:crossAx val="202355840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9590,7 +9605,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -9604,6 +9619,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15424,7 +15440,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C5B5-47BE-9865-69FF36A66B39}"/>
             </c:ext>
@@ -21215,7 +21231,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C5B5-47BE-9865-69FF36A66B39}"/>
             </c:ext>
@@ -21229,12 +21245,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="460470920"/>
-        <c:axId val="460476168"/>
+        <c:axId val="203489280"/>
+        <c:axId val="203490816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="460470920"/>
+        <c:axId val="203489280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21276,7 +21293,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460476168"/>
+        <c:crossAx val="203490816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21284,7 +21301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460476168"/>
+        <c:axId val="203490816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21335,7 +21352,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460470920"/>
+        <c:crossAx val="203489280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21349,6 +21366,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21413,2230 +21431,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23817,7 +21611,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -23852,7 +21646,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -24029,7 +21823,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -28856,7 +26650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -53075,4 +50869,4821 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A960"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A960"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1075.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>2790.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>3865.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>5580.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>1843.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>3353.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>4633.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>5939.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>256.10000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>1536.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>2406.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>3046.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>3481.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>4352.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>4992.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>5427.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>5862.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>5862.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>6067.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>6067.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>6067.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>5862.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>5427.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>4992.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>4121.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>3481.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>2176.1999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>1536.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>6144.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>4864.1000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>3788.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>2713.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>1612.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>537.70000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>5376.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>4300.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>2585.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>844.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>4121.6000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>3057.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>1137.0999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>5949.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>4439.3999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>1853.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>343.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>6052.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>4541.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>3440.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>2365.6999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>1956.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>1085.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>445.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>6128.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>5898.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>5693.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>5488.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>5488.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>5258.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>5693.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>6128.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>215.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>855.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>1956.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>2596.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>3440.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>4311.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>5821.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>573.70000000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>1418.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>2724.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>3364.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>5079.3999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>6180.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>1341.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>2852.3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>4132.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>1495.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>2790.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>4300.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>2278.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>3558.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>5068.8999999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>5939.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>665.7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>1536.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>2176.1999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>3251.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>4121.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>4761.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>5427.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>5632.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>6067.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>6067.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>6067.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>6067.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>5862.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>5427.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>4352.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>4121.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>3046.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>1971.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>1331.4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>665.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>5709</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>4224.1000000000004</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>3353.7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>2048.1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>768.1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>6451.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>3865.6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>2150.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>844.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>1981.9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>906.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>6180.3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>4439.3999999999996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>2493.8000000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>1418.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>138.6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>5181.8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>4311.3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>3671.3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>2596.1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>1520.9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>855.3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>215.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>6128.9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>5898.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>5693.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>5693.6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>5488.8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>5488.8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>5488.8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>5693.6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>6333.6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>215.2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>1085.7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>1956.1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>2800.9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>4106.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>5181.7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>6256.9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>983.3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>1853.8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>4004.2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>5514.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>701.8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>1546.7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>3492.3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>215.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>3225.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>4940.8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>6451.2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>1203.2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>2918.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>3788.9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>5299.3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>6144.1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>896.1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>1971.4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>2611.4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>3481.8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>4121.8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <v>4761.8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <v>5862.6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>5862.6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>5862.6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>6067.4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <v>6067.4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
+        <v>6067.4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <v>5632.2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>4352.2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
+        <v>2841.8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="2">
+        <v>2176.1999999999998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <v>896.2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <v>5504.2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
+        <v>3993.7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
+        <v>3353.7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
+        <v>1843.3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
+        <v>1203.3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <v>6246.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="2">
+        <v>4940.8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="2">
+        <v>3430.4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
+        <v>3276.8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
+        <v>1981.9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
+        <v>266.7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="2">
+        <v>5745.1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <v>4004.2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="2">
+        <v>1213.8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="2">
+        <v>6052.2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="2">
+        <v>5386.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="2">
+        <v>4311.3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
+        <v>3440.9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
+        <v>2365.6999999999998</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="2">
+        <v>1520.9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
+        <v>855.3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
+        <v>215.3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
+        <v>6128.9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
+        <v>5898.4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
+        <v>5488.8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
+        <v>5258.4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="2">
+        <v>5488.8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="2">
+        <v>5258.4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
+        <v>5258.4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="2">
+        <v>5693.6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="2">
+        <v>6333.6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
+        <v>445.6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
+        <v>1290.5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="2">
+        <v>2365.6999999999998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
+        <v>3236.1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
+        <v>4311.3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="2">
+        <v>4951.3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="2">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="2">
+        <v>778.6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="2">
+        <v>2084.1999999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="2">
+        <v>3159.4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="2">
+        <v>4234.6000000000004</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
+        <v>5949.8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="2">
+        <v>266.60000000000002</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="2">
+        <v>2212.3000000000002</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
+        <v>3927.5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="2">
+        <v>650.70000000000005</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="2">
+        <v>2355.1999999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="2">
+        <v>4070.4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="2">
+        <v>5811.2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="2">
+        <v>6451.2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="2">
+        <v>1203.2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="2">
+        <v>3353.7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="2">
+        <v>4633.7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="2">
+        <v>5708.9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="2">
+        <v>460.9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="2">
+        <v>1331.4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="2">
+        <v>1971.4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="2">
+        <v>2841.8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="2">
+        <v>3686.6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="2">
+        <v>4121.8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="2">
+        <v>4992.2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="2">
+        <v>5632.2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="2">
+        <v>5862.6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="2">
+        <v>5862.6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="2">
+        <v>5862.6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="2">
+        <v>6067.4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="2">
+        <v>6067.4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="2">
+        <v>6067.4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="2">
+        <v>384.2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="2">
+        <v>2304.3000000000002</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="2">
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="2">
+        <v>2790.8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="2">
+        <v>3994.1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="2">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="2">
+        <v>1664.7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="2">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="2">
+        <v>3738.5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="2">
+        <v>4608.8999999999996</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="2">
+        <v>6324.1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="2">
+        <v>845.7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="2">
+        <v>410.6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="2">
+        <v>6119.4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="2">
+        <v>4173.7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="2">
+        <v>2228.1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="2">
+        <v>4685.7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="2">
+        <v>1664.8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="2">
+        <v>2407.1999999999998</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="2">
+        <v>4864.7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="2">
+        <v>4736.6000000000004</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="2">
+        <v>3302.9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="2">
+        <v>4685.2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="2">
+        <v>5632.3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="2">
+        <v>537.79999999999995</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="2">
+        <v>1280.0999999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="2">
+        <v>6374.4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="2">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="2">
+        <v>317.7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="2">
+        <v>6512.8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="2">
+        <v>3594.2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="2">
+        <v>3875.7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="2">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="2">
+        <v>1699.5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" s="2">
+        <v>6179.4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" s="2">
+        <v>4540.8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" s="2">
+        <v>5923.1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="2">
+        <v>4284.6000000000004</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" s="2">
+        <v>5871.7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" s="2">
+        <v>5308.4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" s="2">
+        <v>777.1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" s="2">
+        <v>1519.5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" s="2">
+        <v>3541.8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" s="2">
+        <v>520.9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" s="2">
+        <v>3618.5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" s="2">
+        <v>1698.4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" s="2">
+        <v>6076</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" s="2">
+        <v>6075.9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" s="2">
+        <v>392.7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" s="2">
+        <v>1698.4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" s="2">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" s="2">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="2">
+        <v>4181.7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" s="2">
+        <v>1288.9000000000001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" s="2">
+        <v>572.20000000000005</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" s="2">
+        <v>905.1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" s="2">
+        <v>5666.8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" s="2">
+        <v>521.20000000000005</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" s="2">
+        <v>6127.8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" s="2">
+        <v>1852.6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" s="2">
+        <v>1545.6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" s="2">
+        <v>4924.8999999999996</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" s="2">
+        <v>2160.1999999999998</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" s="2">
+        <v>2723.6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" s="2">
+        <v>829.3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" s="2">
+        <v>2032.7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" s="2">
+        <v>778.4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" s="2">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" s="2">
+        <v>2058.6999999999998</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" s="2">
+        <v>384.1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" s="2">
+        <v>1152.3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" s="2">
+        <v>5376.4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" s="2">
+        <v>2842.1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" s="2">
+        <v>2970.3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" s="2">
+        <v>2663.2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" s="2">
+        <v>5376.9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" s="2">
+        <v>1101.8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" s="2">
+        <v>154.80000000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" s="2">
+        <v>1358.1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" s="2">
+        <v>6094.2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" s="2">
+        <v>5582.2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" s="2">
+        <v>2689.5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" s="2">
+        <v>1102.4000000000001</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" s="2">
+        <v>4993.7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="2">
+        <v>155.30000000000001</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" s="2">
+        <v>2536.1999999999998</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" s="2">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" s="2">
+        <v>4046.6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" s="2">
+        <v>3816.2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" s="2">
+        <v>2945.8</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="2">
+        <v>1025.8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" s="2">
+        <v>4558.6000000000004</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" s="2">
+        <v>2177.6999999999998</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" s="2">
+        <v>5505.7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" s="2">
+        <v>334.4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" s="2">
+        <v>2996.8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" s="2">
+        <v>2663.9</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" s="2">
+        <v>1665.4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" s="2">
+        <v>2817.3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" s="2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" s="2">
+        <v>641.1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" s="2">
+        <v>4045.8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" s="2">
+        <v>3687.2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" s="2">
+        <v>6247.1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" s="2">
+        <v>1792.5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" s="2">
+        <v>1024.4000000000001</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" s="2">
+        <v>2918.7</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" s="2">
+        <v>2585.6999999999998</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" s="2">
+        <v>2713.6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" s="2">
+        <v>1956.2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" s="2">
+        <v>4285.7</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" s="2">
+        <v>6179.9</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" s="2">
+        <v>5821.3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" s="2">
+        <v>2672.4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383" s="2">
+        <v>3414.7</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" s="2">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385" s="2">
+        <v>1545.7</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" s="2">
+        <v>4438.5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387" s="2">
+        <v>1852.8</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388" s="2">
+        <v>3798.4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389" s="2">
+        <v>2646.4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390" s="2">
+        <v>4924.8999999999996</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" s="2">
+        <v>2416.1999999999998</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392" s="2">
+        <v>1290.2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393" s="2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A418" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A419" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A421" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A422" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A423" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A424" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A425" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A426" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A427" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A428" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A429" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A430" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A431" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A432" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A438" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A440" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A441" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A442" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A444" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A445" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A446" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A447" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A448" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A449" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A450" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A451" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A452" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A453" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A454" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A455" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A456" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A457" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A458" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A459" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A460" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A461" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A462" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A463" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A464" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A465" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A466" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A467" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A468" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A469" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A470" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A471" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A472" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A473" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A474" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A475" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A476" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A477" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A478" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A479" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A480" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A481" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A482" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A483" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A484" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A485" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A486" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A487" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A488" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A489" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A490" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A491" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A492" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A493" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A494" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A495" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A496" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A497" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A498" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A499" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A500" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A501" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A502" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A503" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A504" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A505" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A506" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A507" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A508" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A509" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A510" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A511" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A512" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A513" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A514" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A515" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A516" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A517" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A518" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A519" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A520" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A521" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A522" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A523" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A524" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A525" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A526" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A527" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A528" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A529" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A530" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A531" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A532" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A533" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A534" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A535" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A536" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A537" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A538" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A539" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A540" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A541" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A542" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A543" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A544" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A545" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A546" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A547" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A548" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A549" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A550" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A551" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A552" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A553" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A554" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A555" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A556" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A557" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A558" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A559" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A560" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A561" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A562" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A563" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A564" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A565" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A566" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A567" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A568" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A569" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A570" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A571" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A572" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A573" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A574" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A575" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A576" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A577" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A578" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A579" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A580" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A581" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A582" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A583" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A584" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A585" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A586" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A587" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A588" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A589" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A590" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A591" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A592" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A593" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A594" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A595" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A596" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A597" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A598" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A599" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A600" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A601" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A602" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A603" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A604" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A605" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A606" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A607" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A608" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A609" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A610" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A611" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A612" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A613" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A614" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A615" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A616" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A617" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A618" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A619" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A620" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A621" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A622" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A623" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A624" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A625" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A626" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A627" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A628" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A629" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A630" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A631" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A632" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A633" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A634" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A635" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A636" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A637" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A638" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A639" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A640" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A641" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A642" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A643" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A644" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A645" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A646" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A647" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A648" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A649" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A650" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A651" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A652" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A653" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A654" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A655" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A656" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A657" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A658" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A659" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A660" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A661" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A662" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A663" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A664" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A665" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A666" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A667" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A668" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A669" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A670" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A671" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A672" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A673" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A674" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A675" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A676" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A677" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A678" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A679" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A680" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A681" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A682" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A683" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A684" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A685" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A686" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A687" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A688" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A689" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A690" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A691" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A692" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A693" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A694" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A695" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A696" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A697" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A698" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A699" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A700" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A701" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A702" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A703" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A704" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A705" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A706" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A707" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A708" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A709" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A710" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A711" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A712" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A713" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A714" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A715" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A716" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A717" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A718" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A719" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A720" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A721" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A722" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A723" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A724" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A725" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A726" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A727" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A728" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A729" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A730" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A731" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A732" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A733" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A734" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A735" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A736" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A737" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A738" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A739" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A740" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A741" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A742" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A743" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A744" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A745" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A746" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A747" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A748" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A749" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A750" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A751" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A752" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A753" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A754" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A755" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A756" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A757" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A758" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A759" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A760" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A761" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A762" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A763" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A764" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A765" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A766" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A767" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A768" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A769" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A770" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A771" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A772" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A773" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A774" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A775" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A776" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A777" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A778" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A779" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A780" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A781" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A782" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A783" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A784" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A785" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A786" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A787" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A788" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A789" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A790" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A791" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A792" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A793" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A794" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A795" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A796" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A797" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A798" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A799" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A800" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A801" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A802" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A803" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A804" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A805" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A806" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A807" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A808" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A809" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A810" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A811" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A812" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A813" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A814" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A815" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A816" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A817" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A818" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A819" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A820" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A821" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A822" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A823" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A824" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A825" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A826" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A827" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A828" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A829" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A830" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A831" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A832" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A833" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A834" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A835" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A836" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A837" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A838" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A839" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A840" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A841" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A842" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A843" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A844" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A845" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A846" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A847" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A848" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A849" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A850" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A851" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A852" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A853" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A854" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A855" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A856" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A857" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A858" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A859" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A860" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A861" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A862" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A863" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A864" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A865" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A866" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A867" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A868" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A869" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A870" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A871" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A872" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A873" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A874" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A875" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A876" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A877" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A878" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A879" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A880" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A881" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A882" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A883" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A884" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A885" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A886" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A887" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A888" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A889" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A890" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A891" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A892" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A893" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A894" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A895" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A896" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A897" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A898" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A899" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A900" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A901" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A902" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A903" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A904" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A905" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A906" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A907" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A908" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A909" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A910" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A911" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A912" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A913" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A914" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A915" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A916" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A917" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A918" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A919" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A920" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A921" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A922" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A923" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A924" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A925" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A926" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A927" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A928" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A929" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A930" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A931" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A932" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A933" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A934" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A935" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A936" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A937" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A938" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A939" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A940" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A941" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A942" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A943" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A944" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A945" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A946" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A947" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A948" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A949" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A950" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A951" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A952" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A953" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A954" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A955" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A956" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A957" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A958" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A959" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A960" s="3">
+        <v>204.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>